--- a/symbols/!MOSFET.xlsx
+++ b/symbols/!MOSFET.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dbwal\VSCode\KiCAD\electronics-library\symbols\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6F855B0-3F27-4016-9B77-198DC331F415}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCFD8CA9-628D-4988-AE53-28DB18A9554E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3315" yWindow="1005" windowWidth="24840" windowHeight="12450" firstSheet="5" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="46560" yWindow="1320" windowWidth="28545" windowHeight="17595" firstSheet="4" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="~NMOS_DGS" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="29">
   <si>
     <t>Symbol Name</t>
   </si>
@@ -79,9 +79,6 @@
     <t>N-Channel 60V 115mA 7Ω@5V 60V SOT-23 MOSFET</t>
   </si>
   <si>
-    <t>TSOT-23</t>
-  </si>
-  <si>
     <t>https://jlcpcb.com/api/file/downloadByFileSystemAccessId/8550724090244980736</t>
   </si>
   <si>
@@ -128,6 +125,12 @@
   </si>
   <si>
     <t>transistor PMOS P-MOS P-MOSFET basic</t>
+  </si>
+  <si>
+    <t>JLCPCB PN</t>
+  </si>
+  <si>
+    <t>Package_TO_SOT_SMD:TSOT-23</t>
   </si>
 </sst>
 </file>
@@ -146,6 +149,7 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -194,15 +198,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -550,8 +551,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -559,6 +560,7 @@
     <col min="1" max="2" width="16.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="50.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="50.85546875" customWidth="1"/>
+    <col min="6" max="6" width="25.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -569,7 +571,7 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
@@ -586,49 +588,49 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" t="s">
         <v>18</v>
       </c>
-      <c r="B2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2" t="s">
         <v>19</v>
-      </c>
-      <c r="D2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" t="str">
         <f>A3</f>
         <v>SI2301CDS-T1-GE3</v>
       </c>
       <c r="C3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G3" t="s">
         <v>22</v>
-      </c>
-      <c r="D3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" t="s">
-        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -679,7 +681,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:H1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -797,14 +799,14 @@
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="50" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.28515625" customWidth="1"/>
     <col min="6" max="6" width="7.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -825,9 +827,9 @@
         <v>4</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
     </row>
@@ -843,40 +845,40 @@
         <v>10</v>
       </c>
       <c r="D2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" t="s">
         <v>11</v>
-      </c>
-      <c r="E2" t="s">
-        <v>12</v>
       </c>
       <c r="F2" t="s">
         <v>9</v>
       </c>
       <c r="G2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B3" t="str">
         <f>A3</f>
         <v>AO3400A</v>
       </c>
       <c r="C3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" t="s">
         <v>15</v>
       </c>
-      <c r="D3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" t="s">
-        <v>16</v>
-      </c>
       <c r="F3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
